--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_17-42.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_17-42.xlsx
@@ -41,6 +41,12 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>AMRIZOLE-N 5 VAG. SUPP</t>
   </si>
   <si>
@@ -62,6 +68,15 @@
     <t>CAPOTRIL 25MG 20 TAB.</t>
   </si>
   <si>
+    <t>CARFALONE 25MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -77,9 +92,6 @@
     <t>CIPALAFIL 5MG 30 TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -101,18 +113,21 @@
     <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
   </si>
   <si>
+    <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
-    <t>1:2</t>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
   </si>
   <si>
     <t>FEMAPENT 2.5MG 14 F.C. TABLETS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>FLACORT 30MG 20 TAB</t>
   </si>
   <si>
@@ -128,6 +143,12 @@
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -146,6 +167,9 @@
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
+    <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
+  </si>
+  <si>
     <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
   </si>
   <si>
@@ -189,9 +213,6 @@
   </si>
   <si>
     <t>SPASMOPYRALGIN 30 TAB</t>
-  </si>
-  <si>
-    <t>2:2</t>
   </si>
   <si>
     <t>STREPTOQUIN 20 TABLETS</t>
@@ -864,11 +885,11 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -876,7 +897,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -884,17 +905,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>-44</v>
+        <v>30</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -910,13 +931,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -928,7 +949,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -936,13 +957,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -954,7 +975,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -962,13 +983,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -994,11 +1015,11 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1006,7 +1027,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1014,17 +1035,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1032,7 +1053,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1040,13 +1061,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -1058,7 +1079,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1066,17 +1087,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1084,7 +1105,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1092,17 +1113,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1118,17 +1139,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1136,7 +1157,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1144,13 +1165,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>128.66999999999999</v>
+        <v>21</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1162,7 +1183,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1170,17 +1191,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1188,7 +1209,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1196,13 +1217,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>197</v>
+        <v>128.66999999999999</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1222,17 +1243,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1248,17 +1269,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1266,7 +1287,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1274,13 +1295,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1300,17 +1321,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1326,17 +1347,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1358,11 +1379,11 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>51.299999999999997</v>
+        <v>16</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1378,13 +1399,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1396,7 +1417,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1404,13 +1425,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1422,7 +1443,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1430,13 +1451,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1448,7 +1469,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1462,11 +1483,11 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1474,7 +1495,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1482,17 +1503,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>16</v>
+        <v>51.299999999999997</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1500,7 +1521,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1508,17 +1529,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1526,7 +1547,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1534,13 +1555,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1552,7 +1573,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1560,17 +1581,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>450</v>
+        <v>43</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1578,7 +1599,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1586,13 +1607,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1612,13 +1633,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>39.899999999999999</v>
+        <v>20</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1630,7 +1651,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1638,17 +1659,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>80.75</v>
+        <v>16</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1664,13 +1685,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>-86.5</v>
+        <v>31</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1682,7 +1703,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1690,17 +1711,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1716,17 +1737,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>-23</v>
+        <v>450</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1742,17 +1763,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1768,17 +1789,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>99</v>
+        <v>39.899999999999999</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1786,7 +1807,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1794,13 +1815,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>59</v>
+        <v>80.75</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1812,7 +1833,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1820,13 +1841,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>53</v>
+        <v>-86.5</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1838,7 +1859,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1846,13 +1867,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1864,7 +1885,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1878,11 +1899,11 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>26</v>
+        <v>-23</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1890,7 +1911,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1898,17 +1919,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1924,17 +1945,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1942,7 +1963,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1950,17 +1971,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -1968,7 +1989,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1976,17 +1997,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -1994,7 +2015,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2002,51 +2023,207 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" ht="26.25" customHeight="1">
-      <c r="K50" s="10">
-        <v>2263.1700000000001</v>
-      </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" ht="25.5" customHeight="1">
+      <c r="A50" s="6">
+        <v>47</v>
+      </c>
+      <c t="s" r="B50" s="7">
+        <v>74</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c t="s" r="H50" s="8">
+        <v>16</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="9">
+        <v>26</v>
+      </c>
+      <c r="M50" s="9"/>
+      <c t="s" r="N50" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" ht="24.75" customHeight="1">
+      <c r="A51" s="6">
+        <v>48</v>
+      </c>
+      <c t="s" r="B51" s="7">
+        <v>75</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c t="s" r="H51" s="8">
+        <v>76</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="9">
+        <v>60</v>
+      </c>
+      <c r="M51" s="9"/>
+      <c t="s" r="N51" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="6">
+        <v>49</v>
+      </c>
+      <c t="s" r="B52" s="7">
         <v>77</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c t="s" r="F51" s="12">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c t="s" r="H52" s="8">
         <v>78</v>
       </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-      <c t="s" r="I51" s="14">
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="9">
+        <v>20</v>
+      </c>
+      <c r="M52" s="9"/>
+      <c t="s" r="N52" s="7">
         <v>79</v>
       </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
+    </row>
+    <row r="53" ht="25.5" customHeight="1">
+      <c r="A53" s="6">
+        <v>50</v>
+      </c>
+      <c t="s" r="B53" s="7">
+        <v>80</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c t="s" r="H53" s="8">
+        <v>81</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="9">
+        <v>14</v>
+      </c>
+      <c r="M53" s="9"/>
+      <c t="s" r="N53" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" ht="24.75" customHeight="1">
+      <c r="A54" s="6">
+        <v>51</v>
+      </c>
+      <c t="s" r="B54" s="7">
+        <v>82</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c t="s" r="H54" s="8">
+        <v>48</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="9">
+        <v>48</v>
+      </c>
+      <c r="M54" s="9"/>
+      <c t="s" r="N54" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" ht="25.5" customHeight="1">
+      <c r="A55" s="6">
+        <v>52</v>
+      </c>
+      <c t="s" r="B55" s="7">
+        <v>83</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c t="s" r="H55" s="8">
+        <v>59</v>
+      </c>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="9">
+        <v>20</v>
+      </c>
+      <c r="M55" s="9"/>
+      <c t="s" r="N55" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="K56" s="10">
+        <v>2580.1700000000001</v>
+      </c>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="11">
+        <v>84</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c t="s" r="F57" s="12">
+        <v>85</v>
+      </c>
+      <c r="G57" s="12"/>
+      <c r="H57" s="13"/>
+      <c t="s" r="I57" s="14">
+        <v>86</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="149">
+  <mergeCells count="167">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2192,10 +2369,28 @@
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="I57:N57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
